--- a/ShorCode9Qubits/test_noise_level_25_40_10000.xlsx
+++ b/ShorCode9Qubits/test_noise_level_25_40_10000.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanma\Documents\Hackday\202007\QSharpPlayground\ShorCode9Qubits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B8A90B76-EEE2-49E0-BED6-55BD52ACA7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A032C00-6D65-4C4E-A234-5DD857D2D8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_noise_level_25" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,16 @@
     <t>NoiseLevels</t>
   </si>
   <si>
-    <t>NoCorrectionErrorRate</t>
+    <t>No Correction</t>
   </si>
   <si>
-    <t>WithCorrectionErrorRate</t>
+    <t>After Correction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,7 +657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NoCorrectionErrorRate</c:v>
+                  <c:v>After Correction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -675,133 +675,135 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>test_noise_level_25!$A$2:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+            <c:strRef>
+              <c:f>test_noise_level_25!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>NoiseLevels</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>0.00625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8749999999999999E-2</c:v>
+                  <c:v>0.0125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.01875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7499999999999999E-2</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3749999999999997E-2</c:v>
+                  <c:v>0.0375</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.04375</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.6250000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.05625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8750000000000006E-2</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.06875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1250000000000003E-2</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7499999999999994E-2</c:v>
+                  <c:v>0.08125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.375E-2</c:v>
+                  <c:v>0.0875</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.09375</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.10625</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.1125</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.11874999999999999</c:v>
-                </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.11875</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13125000000000001</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.13750000000000001</c:v>
+                  <c:v>0.13125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14374999999999999</c:v>
+                  <c:v>0.1375</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0.14375</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.15625</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.16250000000000001</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.16875000000000001</c:v>
+                  <c:v>0.1625</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.16875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.18124999999999999</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0.18125</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0.1875</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.19375000000000001</c:v>
-                </c:pt>
                 <c:pt idx="32">
+                  <c:v>0.19375</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.20624999999999999</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.21249999999999999</c:v>
+                  <c:v>0.20625</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0.2125</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0.21875</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.22500000000000001</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.23125000000000001</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.23749999999999999</c:v>
+                  <c:v>0.23125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.24374999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>0.2375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24375</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -816,118 +818,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>9.9999999999988905E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.99999999999977E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.99999999999977E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9999999999996598E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.9999999999994396E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
+                  <c:v>7.0000000000003295E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.49999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0000000000001103E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.3999999999999499E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.70000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7000000000000301E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2999999999999601E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.1999999999999798E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.7000000000000297E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.1999999999999799E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.09E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.41E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5199999999999899E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.89E-2</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0199999999999899E-2</c:v>
+                  <c:v>1.19999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.45999999999999E-2</c:v>
+                  <c:v>2.0999999999999899E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>2.2999999999999601E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>4.0999999999999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8000000000000199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6000000000000398E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.09999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0999999999999892E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.80000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2599999999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6399999999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>2.6800000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.1499999999999903E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.6599999999999903E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.7100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.19E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.4799999999999902E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.2499999999999901E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.6899999999999902E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.0499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.2300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.9199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.5999999999999901E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.8799999999999898E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.0899999999999903E-2</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.3299999999999999E-2</c:v>
+                  <c:v>3.13999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.2299999999999993E-2</c:v>
+                  <c:v>3.6399999999999898E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.8799999999999999E-2</c:v>
+                  <c:v>3.2699999999999903E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.100099999999999</c:v>
+                  <c:v>3.9300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.10349999999999999</c:v>
+                  <c:v>4.2900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1119</c:v>
+                  <c:v>4.99E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.11890000000000001</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +950,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WithCorrectionErrorRate</c:v>
+                  <c:v>No Correction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -966,133 +968,135 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>test_noise_level_25!$A$2:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+            <c:strRef>
+              <c:f>test_noise_level_25!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>NoiseLevels</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>0.00625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8749999999999999E-2</c:v>
+                  <c:v>0.0125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.01875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7499999999999999E-2</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3749999999999997E-2</c:v>
+                  <c:v>0.0375</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.04375</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.6250000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.05625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8750000000000006E-2</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.06875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1250000000000003E-2</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7499999999999994E-2</c:v>
+                  <c:v>0.08125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.375E-2</c:v>
+                  <c:v>0.0875</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.09375</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.10625</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.1125</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.11874999999999999</c:v>
-                </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.11875</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13125000000000001</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.13750000000000001</c:v>
+                  <c:v>0.13125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14374999999999999</c:v>
+                  <c:v>0.1375</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0.14375</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.15625</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.16250000000000001</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.16875000000000001</c:v>
+                  <c:v>0.1625</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.16875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.18124999999999999</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0.18125</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0.1875</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.19375000000000001</c:v>
-                </c:pt>
                 <c:pt idx="32">
+                  <c:v>0.19375</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.20624999999999999</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.21249999999999999</c:v>
+                  <c:v>0.20625</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0.2125</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0.21875</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.22500000000000001</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.23125000000000001</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.23749999999999999</c:v>
+                  <c:v>0.23125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.24374999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>0.2375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24375</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1107,118 +1111,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.9999999999994396E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.3999999999999499E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.70000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>9.9999999999988905E-5</c:v>
+                  <c:v>2.7000000000000301E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2999999999999601E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.99999999999977E-4</c:v>
+                  <c:v>5.1999999999999798E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.99999999999977E-4</c:v>
+                  <c:v>5.7000000000000297E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9999999999996598E-4</c:v>
+                  <c:v>7.1999999999999799E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9999999999994396E-4</c:v>
+                  <c:v>1.09E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0000000000003295E-4</c:v>
+                  <c:v>1.41E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.49999999999994E-3</c:v>
+                  <c:v>1.4800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0000000000001103E-4</c:v>
+                  <c:v>1.5199999999999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999499E-3</c:v>
+                  <c:v>1.89E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.19999999999997E-3</c:v>
+                  <c:v>2.0199999999999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0999999999999899E-3</c:v>
+                  <c:v>2.45999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2999999999999601E-3</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0999999999999899E-3</c:v>
+                  <c:v>2.6800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8000000000000199E-3</c:v>
+                  <c:v>3.1499999999999903E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6000000000000398E-3</c:v>
+                  <c:v>3.6599999999999903E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.09999999999999E-3</c:v>
+                  <c:v>3.7100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.0999999999999892E-3</c:v>
+                  <c:v>4.19E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.80000000000003E-3</c:v>
+                  <c:v>4.4799999999999902E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.21E-2</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3100000000000001E-2</c:v>
+                  <c:v>5.2499999999999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2599999999999899E-2</c:v>
+                  <c:v>5.6899999999999902E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5100000000000001E-2</c:v>
+                  <c:v>6.0499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6399999999999901E-2</c:v>
+                  <c:v>6.2300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.02</c:v>
+                  <c:v>6.9199999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.18E-2</c:v>
+                  <c:v>7.5999999999999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.29E-2</c:v>
+                  <c:v>7.8799999999999898E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.6800000000000001E-2</c:v>
+                  <c:v>8.0899999999999903E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.13999999999999E-2</c:v>
+                  <c:v>8.3299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.6399999999999898E-2</c:v>
+                  <c:v>9.2299999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.2699999999999903E-2</c:v>
+                  <c:v>9.8799999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.9300000000000002E-2</c:v>
+                  <c:v>0.100099999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.2900000000000001E-2</c:v>
+                  <c:v>0.10349999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.99E-2</c:v>
+                  <c:v>0.1119</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.05</c:v>
+                  <c:v>0.11890000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,6 +1253,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Noise level</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1314,6 +1373,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1985,16 +2099,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>626268</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>519114</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2318,24 +2432,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.73046875" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2365,10 +2483,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>4.9999999999994396E-4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2376,10 +2494,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1.3999999999999499E-3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -2387,10 +2505,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>1.70000000000003E-3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -2398,21 +2516,21 @@
         <v>3.125E-2</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>2.7000000000000301E-3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>9.9999999999988905E-5</v>
+      </c>
+      <c r="C8">
         <v>3.2999999999999601E-3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.9999999999988905E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2420,10 +2538,10 @@
         <v>4.3749999999999997E-2</v>
       </c>
       <c r="B9">
+        <v>1.99999999999977E-4</v>
+      </c>
+      <c r="C9">
         <v>5.1999999999999798E-3</v>
-      </c>
-      <c r="C9">
-        <v>1.99999999999977E-4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -2431,10 +2549,10 @@
         <v>0.05</v>
       </c>
       <c r="B10">
+        <v>1.99999999999977E-4</v>
+      </c>
+      <c r="C10">
         <v>5.7000000000000297E-3</v>
-      </c>
-      <c r="C10">
-        <v>1.99999999999977E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -2442,10 +2560,10 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="B11">
+        <v>2.9999999999996598E-4</v>
+      </c>
+      <c r="C11">
         <v>7.1999999999999799E-3</v>
-      </c>
-      <c r="C11">
-        <v>2.9999999999996598E-4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2453,10 +2571,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="B12">
+        <v>4.9999999999994396E-4</v>
+      </c>
+      <c r="C12">
         <v>1.09E-2</v>
-      </c>
-      <c r="C12">
-        <v>4.9999999999994396E-4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -2464,10 +2582,10 @@
         <v>6.8750000000000006E-2</v>
       </c>
       <c r="B13">
+        <v>7.0000000000003295E-4</v>
+      </c>
+      <c r="C13">
         <v>1.41E-2</v>
-      </c>
-      <c r="C13">
-        <v>7.0000000000003295E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -2475,10 +2593,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="B14">
+        <v>1.49999999999994E-3</v>
+      </c>
+      <c r="C14">
         <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="C14">
-        <v>1.49999999999994E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -2486,10 +2604,10 @@
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="B15">
+        <v>9.0000000000001103E-4</v>
+      </c>
+      <c r="C15">
         <v>1.5199999999999899E-2</v>
-      </c>
-      <c r="C15">
-        <v>9.0000000000001103E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -2497,10 +2615,10 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="B16">
+        <v>1.3999999999999499E-3</v>
+      </c>
+      <c r="C16">
         <v>1.89E-2</v>
-      </c>
-      <c r="C16">
-        <v>1.3999999999999499E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -2508,10 +2626,10 @@
         <v>9.375E-2</v>
       </c>
       <c r="B17">
+        <v>1.19999999999997E-3</v>
+      </c>
+      <c r="C17">
         <v>2.0199999999999899E-2</v>
-      </c>
-      <c r="C17">
-        <v>1.19999999999997E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -2519,10 +2637,10 @@
         <v>0.1</v>
       </c>
       <c r="B18">
+        <v>2.0999999999999899E-3</v>
+      </c>
+      <c r="C18">
         <v>2.45999999999999E-2</v>
-      </c>
-      <c r="C18">
-        <v>2.0999999999999899E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -2530,10 +2648,10 @@
         <v>0.10625</v>
       </c>
       <c r="B19">
+        <v>2.2999999999999601E-3</v>
+      </c>
+      <c r="C19">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C19">
-        <v>2.2999999999999601E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -2541,10 +2659,10 @@
         <v>0.1125</v>
       </c>
       <c r="B20">
+        <v>4.0999999999999899E-3</v>
+      </c>
+      <c r="C20">
         <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="C20">
-        <v>4.0999999999999899E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -2552,10 +2670,10 @@
         <v>0.11874999999999999</v>
       </c>
       <c r="B21">
+        <v>3.8000000000000199E-3</v>
+      </c>
+      <c r="C21">
         <v>3.1499999999999903E-2</v>
-      </c>
-      <c r="C21">
-        <v>3.8000000000000199E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -2563,10 +2681,10 @@
         <v>0.125</v>
       </c>
       <c r="B22">
+        <v>4.6000000000000398E-3</v>
+      </c>
+      <c r="C22">
         <v>3.6599999999999903E-2</v>
-      </c>
-      <c r="C22">
-        <v>4.6000000000000398E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -2574,10 +2692,10 @@
         <v>0.13125000000000001</v>
       </c>
       <c r="B23">
+        <v>6.09999999999999E-3</v>
+      </c>
+      <c r="C23">
         <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="C23">
-        <v>6.09999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -2585,10 +2703,10 @@
         <v>0.13750000000000001</v>
       </c>
       <c r="B24">
+        <v>8.0999999999999892E-3</v>
+      </c>
+      <c r="C24">
         <v>4.19E-2</v>
-      </c>
-      <c r="C24">
-        <v>8.0999999999999892E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -2596,10 +2714,10 @@
         <v>0.14374999999999999</v>
       </c>
       <c r="B25">
+        <v>8.80000000000003E-3</v>
+      </c>
+      <c r="C25">
         <v>4.4799999999999902E-2</v>
-      </c>
-      <c r="C25">
-        <v>8.80000000000003E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -2607,10 +2725,10 @@
         <v>0.15</v>
       </c>
       <c r="B26">
+        <v>1.21E-2</v>
+      </c>
+      <c r="C26">
         <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C26">
-        <v>1.21E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -2618,10 +2736,10 @@
         <v>0.15625</v>
       </c>
       <c r="B27">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="C27">
         <v>5.2499999999999901E-2</v>
-      </c>
-      <c r="C27">
-        <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -2629,10 +2747,10 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="B28">
+        <v>1.2599999999999899E-2</v>
+      </c>
+      <c r="C28">
         <v>5.6899999999999902E-2</v>
-      </c>
-      <c r="C28">
-        <v>1.2599999999999899E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -2640,10 +2758,10 @@
         <v>0.16875000000000001</v>
       </c>
       <c r="B29">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="C29">
         <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="C29">
-        <v>1.5100000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -2651,10 +2769,10 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="B30">
+        <v>1.6399999999999901E-2</v>
+      </c>
+      <c r="C30">
         <v>6.2300000000000001E-2</v>
-      </c>
-      <c r="C30">
-        <v>1.6399999999999901E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -2662,10 +2780,10 @@
         <v>0.18124999999999999</v>
       </c>
       <c r="B31">
+        <v>0.02</v>
+      </c>
+      <c r="C31">
         <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="C31">
-        <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -2673,10 +2791,10 @@
         <v>0.1875</v>
       </c>
       <c r="B32">
+        <v>2.18E-2</v>
+      </c>
+      <c r="C32">
         <v>7.5999999999999901E-2</v>
-      </c>
-      <c r="C32">
-        <v>2.18E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -2684,10 +2802,10 @@
         <v>0.19375000000000001</v>
       </c>
       <c r="B33">
+        <v>2.29E-2</v>
+      </c>
+      <c r="C33">
         <v>7.8799999999999898E-2</v>
-      </c>
-      <c r="C33">
-        <v>2.29E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -2695,10 +2813,10 @@
         <v>0.2</v>
       </c>
       <c r="B34">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="C34">
         <v>8.0899999999999903E-2</v>
-      </c>
-      <c r="C34">
-        <v>2.6800000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -2706,10 +2824,10 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="B35">
+        <v>3.13999999999999E-2</v>
+      </c>
+      <c r="C35">
         <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="C35">
-        <v>3.13999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -2717,10 +2835,10 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="B36">
+        <v>3.6399999999999898E-2</v>
+      </c>
+      <c r="C36">
         <v>9.2299999999999993E-2</v>
-      </c>
-      <c r="C36">
-        <v>3.6399999999999898E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -2728,10 +2846,10 @@
         <v>0.21875</v>
       </c>
       <c r="B37">
+        <v>3.2699999999999903E-2</v>
+      </c>
+      <c r="C37">
         <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="C37">
-        <v>3.2699999999999903E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -2739,10 +2857,10 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="B38">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="C38">
         <v>0.100099999999999</v>
-      </c>
-      <c r="C38">
-        <v>3.9300000000000002E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -2750,10 +2868,10 @@
         <v>0.23125000000000001</v>
       </c>
       <c r="B39">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="C39">
         <v>0.10349999999999999</v>
-      </c>
-      <c r="C39">
-        <v>4.2900000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -2761,10 +2879,10 @@
         <v>0.23749999999999999</v>
       </c>
       <c r="B40">
+        <v>4.99E-2</v>
+      </c>
+      <c r="C40">
         <v>0.1119</v>
-      </c>
-      <c r="C40">
-        <v>4.99E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -2772,10 +2890,10 @@
         <v>0.24374999999999999</v>
       </c>
       <c r="B41">
+        <v>0.05</v>
+      </c>
+      <c r="C41">
         <v>0.11890000000000001</v>
-      </c>
-      <c r="C41">
-        <v>0.05</v>
       </c>
     </row>
   </sheetData>
